--- a/translations/Arabic.xlsx
+++ b/translations/Arabic.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\ac translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1242,7 +1242,7 @@
 * لن تحتاج إلى التثبيت، كل ما عليك القيام به هو النقر والتشغيل
 * تصميم رائع وواجهة مستخدم سهلة ومذهلة
 هل لديك أسئلة؟ هل جهاز التحكم عن بعد لا يعمل؟
-لا تتردد في التواصل معنى على ____
+لا تتردد في التواصل معنى على _____
 جهاز للتحكم عن بعد بسهولة بالتلفاز</t>
   </si>
 </sst>
@@ -1722,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -3350,7 +3350,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="360">
+    <row r="136" spans="1:6" ht="345">
       <c r="A136" s="10" t="s">
         <v>263</v>
       </c>
